--- a/Тестовая документация/mailru/test-suite_mailru.xlsx
+++ b/Тестовая документация/mailru/test-suite_mailru.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Main\Education\QA\all\Portfolio\Тестовая документация\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Main\Education\QA\Portfolio\Тестовая документация\mailru\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D7B33B9-4A1F-4379-A345-C93D45A37393}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68CF6E88-4945-4970-83E1-272EF7E57720}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4476" yWindow="1560" windowWidth="11676" windowHeight="10416" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Тестовый набор" sheetId="3" r:id="rId1"/>
@@ -847,7 +847,7 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
